--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.031</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.215</v>
+        <v>19.023</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.119</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.939</v>
+        <v>17.134</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.189</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.984</v>
+        <v>14.977</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19.73067245730039</v>
+        <v>5.605361054230102</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.42030595140736</v>
+        <v>35.33331150647619</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.25552014451384</v>
+        <v>40.29800986033288</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18.73563745042684</v>
+        <v>11.43658711377761</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.60020157281016</v>
+        <v>30.04787662725143</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.51503660232215</v>
+        <v>37.31455165040293</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.89017280454809</v>
+        <v>24.83366184497828</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.35622163717131</v>
+        <v>39.97693326466998</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.14712274289566</v>
+        <v>44.72713087423574</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.47983150889451</v>
+        <v>43.96412399323663</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.0755558627694</v>
+        <v>51.28499218830038</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.62282013467133</v>
+        <v>56.07410208635559</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.3160968701487</v>
+        <v>22.07038865495607</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.93955701852917</v>
+        <v>44.39395893277866</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.09228615506036</v>
+        <v>52.50136265406653</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22.00310225887174</v>
+        <v>11.40777976420258</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.73367330288138</v>
+        <v>44.06028647594718</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.58125983543237</v>
+        <v>49.97731358292155</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.02338180175369</v>
+        <v>12.84634302290016</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.93050222854507</v>
+        <v>34.71890527279123</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.85810711987466</v>
+        <v>43.05327037923357</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.17853786803889</v>
+        <v>28.23828320570568</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.68440931075144</v>
+        <v>46.16344164692842</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.48721814186257</v>
+        <v>51.79611268405392</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.8386222964311</v>
+        <v>51.5003226455364</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.4692570039445</v>
+        <v>61.67764001401022</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35.02861746409271</v>
+        <v>67.41383707566646</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.65965052462145</v>
+        <v>27.09207740604645</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.33056663688232</v>
+        <v>54.25870874919668</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.49775511409799</v>
+        <v>62.94586100392107</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.01356263494001</v>
+        <v>18.72005020316231</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.68760933373057</v>
+        <v>53.52502225901731</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.52497336202308</v>
+        <v>60.80006362276939</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.20724742259525</v>
+        <v>20.42864309605966</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34.05649955256237</v>
+        <v>44.7453820818999</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.97344798557995</v>
+        <v>54.63015700243591</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.32980057380923</v>
+        <v>38.6775700858888</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.78185963293619</v>
+        <v>58.79140637378342</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.57454476274455</v>
+        <v>65.75713023702609</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.9988669405393</v>
+        <v>68.44468988026473</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.58710427470746</v>
+        <v>79.16458140554919</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>42.13788440546119</v>
+        <v>85.88003652115144</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.79850973453628</v>
+        <v>40.04037244756154</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.4035118713346</v>
+        <v>70.21172959015088</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43.55886734628427</v>
+        <v>80.6762577965729</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>17.02700914807717</v>
+        <v>12.0671314891292</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.78052331591603</v>
+        <v>44.19777454857561</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.61389154635362</v>
+        <v>48.91683012796037</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.98118194736487</v>
+        <v>17.99760523506639</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.91195574290043</v>
+        <v>39.3311195373779</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.82508869116856</v>
+        <v>46.30870547897612</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.16103087135298</v>
+        <v>32.95456543604856</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.68897256603971</v>
+        <v>50.5095638633213</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24.47820234270396</v>
+        <v>55.02263733843945</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>23.76387503181934</v>
+        <v>53.71173092687154</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.41061989757532</v>
+        <v>62.29912662271875</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.95387872934627</v>
+        <v>66.27723516081916</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>22.59154357857538</v>
+        <v>29.68383712236712</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.28955139022491</v>
+        <v>55.18308791230992</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.44060016174924</v>
+        <v>62.77141168319197</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>19.32590814474602</v>
+        <v>13.8739773681071</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.12064657236589</v>
+        <v>48.92035780286525</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.9663821363377</v>
+        <v>54.5298055150689</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>18.29616347319556</v>
+        <v>15.27432733543105</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.26978550591327</v>
+        <v>39.855158424148</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.19568588877656</v>
+        <v>47.83158797866312</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.47665751725383</v>
+        <v>32.26260478582964</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.04469303154542</v>
+        <v>52.58862770263514</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.84582862469319</v>
+        <v>57.92306816914541</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.15044481647784</v>
+        <v>57.20519365682883</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.83234192535598</v>
+        <v>68.58617595030039</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.38765784102267</v>
+        <v>73.51615459554489</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.96275137519439</v>
+        <v>30.76972485911905</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.70854817976564</v>
+        <v>61.07290326425343</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.87405211302966</v>
+        <v>69.16714495728861</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.58660549656065</v>
+        <v>21.32213897990576</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.32395909019391</v>
+        <v>58.55135468064928</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.15949442490159</v>
+        <v>65.55128679155143</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.73471894241551</v>
+        <v>23.03806504246502</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.64958242831178</v>
+        <v>50.09608039622842</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.56484429110301</v>
+        <v>59.65945090747539</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.88219725107917</v>
+        <v>42.87511302817178</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>32.39559017597751</v>
+        <v>65.4196950748738</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.18661719842814</v>
+        <v>72.11954385488559</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.56712931819948</v>
+        <v>74.35909098714515</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>38.20590648771373</v>
+        <v>86.30664134274014</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>39.7526200401091</v>
+        <v>92.21556995123137</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32.35713140683801</v>
+        <v>43.93584586514402</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>39.0360078302264</v>
+        <v>77.28339020546304</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.18970071805691</v>
+        <v>87.19781263372013</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.02700914807717</v>
+        <v>9.765844156934886</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22.78052331591603</v>
+        <v>41.74328057403494</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.61389154635362</v>
+        <v>46.23606674713966</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>15.98118194736487</v>
+        <v>15.55851051296975</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>21.91195574290043</v>
+        <v>36.71565215698872</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>23.82508869116856</v>
+        <v>43.44055100665422</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.16103087135298</v>
+        <v>30.46446592963582</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.68897256603971</v>
+        <v>47.86408176949892</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.47820234270396</v>
+        <v>52.15217620809247</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.76387503181934</v>
+        <v>51.37658050456282</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.41061989757532</v>
+        <v>59.88376860839857</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.95387872934627</v>
+        <v>63.72934987601445</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.59154357857538</v>
+        <v>27.57057160601154</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.28955139022491</v>
+        <v>52.87855160271516</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.44060016174924</v>
+        <v>60.18032200181977</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.32590814474602</v>
+        <v>12.59079464922642</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.12064657236589</v>
+        <v>47.4950829150413</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>26.9663821363377</v>
+        <v>52.87096658562167</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>18.29616347319556</v>
+        <v>13.88389046161734</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.26978550591327</v>
+        <v>38.30046971607629</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.19568588877656</v>
+        <v>46.01603554087394</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.47665751725383</v>
+        <v>30.82607945751178</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.04469303154542</v>
+        <v>51.00742224600456</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.84582862469319</v>
+        <v>56.10981249009883</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.15044481647784</v>
+        <v>55.90895741356459</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30.83234192535598</v>
+        <v>67.21090558373126</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>32.38765784102267</v>
+        <v>72.00246442933835</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.96275137519439</v>
+        <v>29.68313112340457</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.70854817976564</v>
+        <v>59.80675870875586</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.87405211302966</v>
+        <v>67.60557745983508</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.58660549656065</v>
+        <v>20.18550338263204</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.32395909019391</v>
+        <v>57.27711034443078</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.15949442490159</v>
+        <v>64.04506026298031</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.73471894241551</v>
+        <v>21.78921663195189</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.64958242831178</v>
+        <v>48.68769131737697</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.56484429110301</v>
+        <v>57.99196280000209</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.88219725107917</v>
+        <v>41.58335154391771</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.39559017597751</v>
+        <v>63.98751501009529</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34.18661719842814</v>
+        <v>70.45679255664828</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>33.56712931819948</v>
+        <v>73.19998972269897</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>38.20590648771373</v>
+        <v>85.06832311306164</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>39.7526200401091</v>
+        <v>90.83891854279466</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.35713140683801</v>
+        <v>42.97532487227694</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>39.0360078302264</v>
+        <v>76.14733170149091</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>41.18970071805691</v>
+        <v>85.76960805093233</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.1418908828542</v>
+        <v>2.66145778646872</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.84661943524473</v>
+        <v>31.8146645166925</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.68542403622028</v>
+        <v>36.66473737211197</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>17.11625889712381</v>
+        <v>8.424105538258619</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.99637838751001</v>
+        <v>26.41238279213065</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.91498190368283</v>
+        <v>33.53967933289906</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>18.27576086643563</v>
+        <v>21.38129246505716</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.75631084469403</v>
+        <v>35.97570569061212</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.55072205700327</v>
+        <v>40.6077662562968</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.8770149045667</v>
+        <v>39.71279723796216</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.4850733274767</v>
+        <v>46.82665381887148</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.03521849052255</v>
+        <v>51.52910563258023</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>23.71975415256813</v>
+        <v>18.37480747872673</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.36079364143593</v>
+        <v>40.03047394201768</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.517802137853</v>
+        <v>47.93558981839188</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.42706726990109</v>
+        <v>8.180060966483655</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.17286459408686</v>
+        <v>40.23567216205161</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.02408178845052</v>
+        <v>46.0310036457019</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>19.41688175169983</v>
+        <v>9.547681532351355</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.33969334051587</v>
+        <v>30.77094601453049</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.27110859692469</v>
+        <v>38.95861048065171</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>20.57701084061599</v>
+        <v>24.48658325285744</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.09751031645614</v>
+        <v>41.8401296781178</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.90386838014395</v>
+        <v>47.34822648561138</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.24887278196502</v>
+        <v>46.95041847638699</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.89195401968879</v>
+        <v>56.90777083594639</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>33.45423158901942</v>
+        <v>62.56065903502844</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.07627832471707</v>
+        <v>23.11630827049429</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>32.76492593413409</v>
+        <v>49.58446314922729</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.93644109714759</v>
+        <v>58.062987530519</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.53052123657871</v>
+        <v>16.06083322872822</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.21971896334943</v>
+        <v>50.28066538945794</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.06069938379105</v>
+        <v>57.43776088499106</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.69511261758676</v>
+        <v>17.69420782607132</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.55997881255179</v>
+        <v>41.37480704955723</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.48072166360866</v>
+        <v>51.11690502909259</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.82258752489611</v>
+        <v>35.50366872854029</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.28920270580784</v>
+        <v>55.05727092088117</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.08542230740012</v>
+        <v>61.90191324970959</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.50365168266987</v>
+        <v>64.47479065247794</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.10427904278259</v>
+        <v>74.9794424117209</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>40.65796087160336</v>
+        <v>81.60879951054565</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>33.30910916788518</v>
+        <v>36.63973042708214</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>39.93175448604669</v>
+        <v>66.12632315874387</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.09141801405286</v>
+        <v>76.38545105117467</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.01207167525677</v>
+        <v>12.2776897716078</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.70206770676066</v>
+        <v>42.75787055856031</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.53504099265412</v>
+        <v>47.6671633930535</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>19.01864797312108</v>
+        <v>18.4041445757524</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.8836104209654</v>
+        <v>37.86069602586689</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.79613050281987</v>
+        <v>45.05602176544612</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.17227225212509</v>
+        <v>32.12353874435988</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.63868606643062</v>
+        <v>48.01978249560614</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.42741169359141</v>
+        <v>52.71209102699211</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.75735563231402</v>
+        <v>51.69551354304903</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.35348892435866</v>
+        <v>59.44042706887379</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.89876354530348</v>
+        <v>64.23123352041077</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.59069009836221</v>
+        <v>29.09167641763209</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.21462911610539</v>
+        <v>52.34099582512378</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.36477762754034</v>
+        <v>60.32519142896493</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.29625004100219</v>
+        <v>19.42643929546409</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.02717768984315</v>
+        <v>52.82179410288359</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.87249428064562</v>
+        <v>58.65518980173623</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.31830726151535</v>
+        <v>21.13986774158545</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.22581927471971</v>
+        <v>43.84538443911774</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.15107869127119</v>
+        <v>52.07607896322389</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.47254727363647</v>
+        <v>36.88686490394583</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.97877737014347</v>
+        <v>55.55483158246761</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.7793823302583</v>
+        <v>61.10138422571589</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.12807726044873</v>
+        <v>60.64526459213457</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.75911872527891</v>
+        <v>71.23986197453465</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.31646304476656</v>
+        <v>76.96961078354852</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.94610929349042</v>
+        <v>35.55797688332338</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.61749731408629</v>
+        <v>63.64031430371873</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.31076688435662</v>
+        <v>25.39169081513233</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>34.98515239468838</v>
+        <v>60.92185618492298</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.8203064121077</v>
+        <v>68.12221317289959</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.50624570172929</v>
+        <v>27.35543014027163</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.3558687852039</v>
+        <v>52.4855485099143</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.27053314239749</v>
+        <v>62.27646403216718</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.62793051006776</v>
+        <v>45.93672789365358</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.08032982659017</v>
+        <v>66.77594031510407</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.87086862673541</v>
+        <v>73.66410981133019</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>36.29249933610683</v>
+        <v>76.1961887996123</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>40.88113877520971</v>
+        <v>87.32549809448601</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>42.42995211125613</v>
+        <v>94.03289040380785</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>35.08914974722877</v>
+        <v>47.14029048797798</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>41.69459829053273</v>
+        <v>78.20838927710214</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>43.84740753365071</v>
+        <v>88.52233748199644</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14.78837788001075</v>
+        <v>9.438368042801773</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>20.44984368678935</v>
+        <v>41.43888987038801</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.25408063694982</v>
+        <v>46.00268289562052</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>13.70945525463008</v>
+        <v>15.68051857361416</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>19.54505502880865</v>
+        <v>37.01104104793062</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.4279218564931</v>
+        <v>43.79672550110561</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>14.87648199336532</v>
+        <v>30.33183521462595</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>20.31569085661093</v>
+        <v>47.90474462013547</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>22.07660463690552</v>
+        <v>52.26820819713785</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>21.36862322856691</v>
+        <v>50.75203217919974</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.94179214859514</v>
+        <v>59.35956177703548</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.460251304043</v>
+        <v>63.42897066388483</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.23127936262062</v>
+        <v>26.81406366385428</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.82201760101642</v>
+        <v>52.14119591607364</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.93909675339665</v>
+        <v>59.5455264892052</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.0970198878647</v>
+        <v>17.71467373658352</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.79924324842764</v>
+        <v>52.64344879901738</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.61566351718356</v>
+        <v>58.06452732726143</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.03433144832609</v>
+        <v>19.5063405378326</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>21.9122918763517</v>
+        <v>44.09864875505313</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.80773666964475</v>
+        <v>51.84406892455249</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>17.20196822582997</v>
+        <v>36.26734131817112</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.68081555852339</v>
+        <v>56.62451212981039</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>24.45345886237509</v>
+        <v>61.77657770118766</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>23.76434135731612</v>
+        <v>60.92123835280054</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.37224090261729</v>
+        <v>72.33422913429443</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.90258329974253</v>
+        <v>77.31471793393862</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.61164416037608</v>
+        <v>34.57092421255503</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.24962709983865</v>
+        <v>64.72101302650955</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>31.38094653731689</v>
+        <v>72.59211590831849</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.36849049532403</v>
+        <v>24.30793398469217</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.01455376682058</v>
+        <v>61.36883282446442</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.82092490183628</v>
+        <v>68.15428299813826</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.48241733519717</v>
+        <v>26.35056686372708</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.30288250739053</v>
+        <v>53.36327540230801</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.18784637117741</v>
+        <v>62.66600597190896</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>24.6175483906749</v>
+        <v>45.92399927376974</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.04293068252119</v>
+        <v>68.448766456079</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.80561568004776</v>
+        <v>74.94032875233357</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.19136578485418</v>
+        <v>77.00743880259253</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>35.75708268671141</v>
+        <v>88.96282542691516</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>37.27894299580235</v>
+        <v>94.89655833434858</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.01589877551649</v>
+        <v>46.7316927144662</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>36.58839024882139</v>
+        <v>79.86502288910155</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>38.7080692309226</v>
+        <v>89.51613364028736</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>14.49647407703091</v>
+        <v>-0.642742604381489</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>20.15907444762655</v>
+        <v>29.28812660400251</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.96737308830895</v>
+        <v>33.81332430994617</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.41711128151204</v>
+        <v>4.997950088968611</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.25384885357739</v>
+        <v>24.01402496495358</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.14091910475544</v>
+        <v>30.77029298757602</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>14.58534171168149</v>
+        <v>18.81838018502111</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.02561970057601</v>
+        <v>34.33449199965793</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.79047935495063</v>
+        <v>38.66183072231826</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.08617435817099</v>
+        <v>38.15875589967062</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.6600232938574</v>
+        <v>45.67983689657689</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.1820898239927</v>
+        <v>49.61249284661378</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>19.95177020817018</v>
+        <v>16.19740498517832</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.54374690553681</v>
+        <v>38.96935567957064</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.66552388017388</v>
+        <v>46.43893857780992</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.78975942938895</v>
+        <v>5.500010452074765</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.49314232096772</v>
+        <v>38.38654364843485</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.31367373923306</v>
+        <v>43.83016357603694</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>15.72640053068525</v>
+        <v>6.76216594739023</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.60552561764533</v>
+        <v>29.07430574070169</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.50522565400902</v>
+        <v>36.86084172555076</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.89524707112122</v>
+        <v>22.62585174924731</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.37518866901736</v>
+        <v>40.9548863350896</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.15182607696306</v>
+        <v>46.13243973394063</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>23.46631019203546</v>
+        <v>46.0649113450274</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.07490679344479</v>
+        <v>56.40506715927863</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.60890193905342</v>
+        <v>61.2642387532677</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.31663556960482</v>
+        <v>21.61502679170113</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.95588614242689</v>
+        <v>49.23825915457073</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.09196226177555</v>
+        <v>57.24845299861472</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.05281335660852</v>
+        <v>14.92714535831979</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.70004660808775</v>
+        <v>49.99473638787314</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.51044062760817</v>
+        <v>56.78636458831184</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>23.16598399977515</v>
+        <v>16.4743781928211</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.98762784397208</v>
+        <v>41.26098336191694</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>30.87675626035928</v>
+        <v>50.58700611051971</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.30226186811232</v>
+        <v>35.20295514546928</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.72875026762367</v>
+        <v>55.74756869958514</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.4953445477225</v>
+        <v>62.24904160318671</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>30.88464341676432</v>
+        <v>65.07068325527905</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>35.4510547563374</v>
+        <v>75.97343800093294</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>36.976495693959</v>
+        <v>81.79333934592592</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.71221437943</v>
+        <v>36.62536614175904</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.28599237476324</v>
+        <v>67.28518542963441</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.41032578996187</v>
+        <v>77.06705533910696</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>19.20292115145152</v>
+        <v>-5.455577889352504</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.95927405730139</v>
+        <v>24.75190374993914</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.81073863691735</v>
+        <v>29.64238815190767</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>18.18543773855992</v>
+        <v>0.3696511763348482</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.11880649165891</v>
+        <v>19.49422599944846</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.05070354320389</v>
+        <v>26.6708175132834</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.35521025278114</v>
+        <v>13.84697558169703</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>24.88540829659583</v>
+        <v>29.44668324276876</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.69223673085602</v>
+        <v>34.11947794869454</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.00160389538624</v>
+        <v>33.27163902068853</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.65123940170827</v>
+        <v>40.9625179195294</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>32.21158008941775</v>
+        <v>45.67564366659303</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.82198044873099</v>
+        <v>10.94134759181217</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.52317183856515</v>
+        <v>33.86900050754689</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.69517501106861</v>
+        <v>41.79879455301673</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.52702130999229</v>
+        <v>0.1490442220317725</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>27.32481817429099</v>
+        <v>33.27243721715468</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.18877132943713</v>
+        <v>39.08766839813757</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>20.52548554138382</v>
+        <v>1.532010646803769</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.5019350337992</v>
+        <v>23.90620218086072</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.44672251365107</v>
+        <v>32.11942735081926</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.69584315296131</v>
+        <v>17.03120816701968</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.26635412647001</v>
+        <v>35.40290555250985</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.08520291024023</v>
+        <v>40.93077083239498</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.413599181759</v>
+        <v>40.64967051752431</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.09857075983633</v>
+        <v>51.19361508667382</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.67111449401204</v>
+        <v>56.85125125977187</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.21843683335644</v>
+        <v>15.84099789167174</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>33.96767107762239</v>
+        <v>43.60234508561771</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.15426979141173</v>
+        <v>52.07683852210928</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.68785378366649</v>
+        <v>6.821339803704781</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>34.42851548565736</v>
+        <v>42.09770068773035</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.28217730868376</v>
+        <v>49.2936509847035</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>27.86254301292708</v>
+        <v>8.46790554417537</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.78049766844877</v>
+        <v>33.28694430132505</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.71455380348991</v>
+        <v>43.0758885268413</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.99995270793136</v>
+        <v>26.81871902179856</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>34.51606919443183</v>
+        <v>47.37964610507875</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.32472315999538</v>
+        <v>54.26266434250545</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.72746398180905</v>
+        <v>56.95440880592759</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.36957578633285</v>
+        <v>68.04340212054089</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.93346824736827</v>
+        <v>74.68603861124339</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>34.5103685774465</v>
+        <v>28.15643085942537</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>41.19297272363195</v>
+        <v>58.92664291987206</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>43.36765426161881</v>
+        <v>69.20306236493236</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.45575663435929</v>
+        <v>18.27382026400481</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.16188700997916</v>
+        <v>50.98977171491778</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.98184689297796</v>
+        <v>55.613849979626</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.42325569202867</v>
+        <v>25.08443319108894</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.30493455800528</v>
+        <v>47.13284571225094</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.20418346088794</v>
+        <v>54.00622919461409</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.59365875859808</v>
+        <v>40.34029934241156</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.07580975569978</v>
+        <v>58.54219707406014</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.85205970350258</v>
+        <v>62.96986942252516</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.14631374091653</v>
+        <v>62.01403941754559</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.75514755391676</v>
+        <v>70.88126417201136</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.28706970223037</v>
+        <v>74.86602055717027</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.98284076824115</v>
+        <v>37.80048286832113</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.62558901894669</v>
+        <v>63.93017368111163</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.76103597612278</v>
+        <v>71.50904690448644</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.75838654599447</v>
+        <v>19.57424144328534</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.50553438338104</v>
+        <v>55.2222351822584</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.33776740540098</v>
+        <v>60.70451172317551</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.74195366291833</v>
+        <v>21.82048965557048</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.66626504927845</v>
+        <v>47.13765666355436</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.57818412593377</v>
+        <v>54.97260700421724</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.91297633002725</v>
+        <v>39.10983149710177</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.43502017118267</v>
+        <v>60.10121278228205</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.22308534692745</v>
+        <v>65.31852432001457</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.53629174995945</v>
+        <v>64.98727782925967</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.18008278297621</v>
+        <v>76.67286195520953</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.72397937113178</v>
+        <v>81.56152714948765</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.35749045397724</v>
+        <v>38.36864739049695</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.04778536350668</v>
+        <v>69.33032518185171</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.19757781487862</v>
+        <v>77.36891622215563</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.9704982897113</v>
+        <v>26.35890409319709</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.66093557504088</v>
+        <v>64.1370196316863</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.48297398861919</v>
+        <v>70.9974356092427</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.13029949303594</v>
+        <v>28.8843233883012</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.9965518474479</v>
+        <v>56.6193387556138</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.89783760487521</v>
+        <v>66.02716494818337</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.26862618807075</v>
+        <v>48.99491227029806</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.73667990488997</v>
+        <v>72.15195063966091</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.51464275295715</v>
+        <v>78.72260547276741</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>33.90298858982778</v>
+        <v>81.30755554623029</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.5041790942137</v>
+        <v>93.53837881899692</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.03947680365737</v>
+        <v>99.39044647828436</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.70196520367299</v>
+        <v>50.73331563106625</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>39.32612882091831</v>
+        <v>84.67646463636549</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>41.46411227150799</v>
+        <v>94.51476398111897</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>13.3108456311578</v>
+        <v>-4.171375614348278</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>19.00756227976067</v>
+        <v>25.38162349896423</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.82580422903617</v>
+        <v>30.12690813956515</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.20728329666658</v>
+        <v>0.4679409160073504</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.07946255229305</v>
+        <v>19.18224391019045</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.97678160833829</v>
+        <v>26.16967073138605</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>13.38533147025539</v>
+        <v>14.22948287705013</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>18.8586943020507</v>
+        <v>29.48113373513864</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.63313618424365</v>
+        <v>34.02281211076239</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.91857421159759</v>
+        <v>32.81366527492538</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.51958464754201</v>
+        <v>40.18067905902825</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.05003836839432</v>
+        <v>44.25340646876774</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.78220351284433</v>
+        <v>10.54096027527966</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.41397010455274</v>
+        <v>33.15349551642157</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.54726066661404</v>
+        <v>40.7675988833751</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>15.59378159056885</v>
+        <v>0.5059528963387194</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>21.33139213598058</v>
+        <v>32.94548613535217</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.16194841942722</v>
+        <v>38.62227840086672</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>14.50623936163106</v>
+        <v>0.8143016240362932</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.42092241110886</v>
+        <v>22.74567096513576</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.33095588217243</v>
+        <v>30.77836123960131</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.68491632772379</v>
+        <v>16.57700280302837</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.198050668518</v>
+        <v>34.57345747311458</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.98434924315137</v>
+        <v>39.97803763045258</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.28856101386289</v>
+        <v>39.16909068606708</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.92442933178287</v>
+        <v>49.27913132575221</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.46687837191511</v>
+        <v>54.31652389870794</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.13694967092284</v>
+        <v>14.46516024090732</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.81612198958697</v>
+        <v>41.82010468748376</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.96380635165694</v>
+        <v>50.0042752123356</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.90085725605274</v>
+        <v>8.989998525306202</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.58174820622652</v>
+        <v>43.61264827282939</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.40220867888154</v>
+        <v>50.63877049760777</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.99149364324623</v>
+        <v>9.6154400068</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.84810253939572</v>
+        <v>34.02369597434934</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.74760971112896</v>
+        <v>43.59733299748224</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>23.13724080808939</v>
+        <v>28.20289096329353</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.59636858541911</v>
+        <v>48.41743147767447</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.372665252218</v>
+        <v>55.14723766362278</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.7525090037755</v>
+        <v>57.25240920676158</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.34574637957418</v>
+        <v>67.93202828463677</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.87967587950799</v>
+        <v>73.94683138712436</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.57810733728618</v>
+        <v>28.60260209779928</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.19114064279124</v>
+        <v>58.99151745993892</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>37.32713663001369</v>
+        <v>68.95353888298303</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.02628024862261</v>
+        <v>7.092472939674501</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.75196016283074</v>
+        <v>38.29919967864726</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.57555875321887</v>
+        <v>42.71402731448839</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>13.9440915584252</v>
+        <v>12.38278835787703</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>19.84615604476304</v>
+        <v>32.82040325654265</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.7491073126814</v>
+        <v>39.43280147944266</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>15.12230457194421</v>
+        <v>26.77987509499694</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.62349022189097</v>
+        <v>43.55378292762555</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.40318533132487</v>
+        <v>47.76111641929836</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.68543292953812</v>
+        <v>46.57442903845539</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.30998993794178</v>
+        <v>54.80988372842695</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.84487148797145</v>
+        <v>58.67936085108552</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>20.53100170862427</v>
+        <v>23.1139378025246</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.19660289547613</v>
+        <v>47.62869974642247</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.33624470221684</v>
+        <v>54.73997997634515</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.33371868106214</v>
+        <v>14.77959400000672</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.10047054868502</v>
+        <v>48.89011203654236</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.93638518963792</v>
+        <v>54.18668807977915</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>16.26778738509562</v>
+        <v>15.68438471876161</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.21254055078659</v>
+        <v>39.35356257067856</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.12820673226856</v>
+        <v>46.95464897780566</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>17.44663083390102</v>
+        <v>32.15547641211398</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.9877609570254</v>
+        <v>51.68776098854777</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.77931312087402</v>
+        <v>56.70831396583775</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.08045690351227</v>
+        <v>56.11098580569324</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.74003297897448</v>
+        <v>67.11133370325177</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.28691834075211</v>
+        <v>71.93214995034602</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.91061724952667</v>
+        <v>30.24014317936229</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.62383055419392</v>
+        <v>59.53034294307049</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.77786740221077</v>
+        <v>67.14750011092764</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.64780052720691</v>
+        <v>22.1784190169722</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.35752586103159</v>
+        <v>58.47008148357362</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.18334634400564</v>
+        <v>65.1418706528938</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.76022336956648</v>
+        <v>23.37465727899754</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.64658445820765</v>
+        <v>49.51879756302098</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.55172309464493</v>
+        <v>58.68947668858653</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>24.90615875657753</v>
+        <v>42.6755971123706</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.392987670377</v>
+        <v>64.42425843657405</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.17453614847181</v>
+        <v>70.79491531024547</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>31.55146037021085</v>
+        <v>73.13101710479668</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.16819052884339</v>
+        <v>84.69439097898157</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>37.70655848205561</v>
+        <v>90.4828827828301</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.35888175662942</v>
+        <v>43.30333761636965</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>37.0055903992018</v>
+        <v>75.63119046243747</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.14793892644624</v>
+        <v>85.04937737212416</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>14.63875817668873</v>
+        <v>-3.891858321034189</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.34495580925367</v>
+        <v>25.81844775170341</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.16361525161242</v>
+        <v>30.22334827075076</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>13.56180570809023</v>
+        <v>1.169650165878064</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.44377917623397</v>
+        <v>19.97592607621413</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.3415682217302</v>
+        <v>26.57713964025552</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>14.73631182787906</v>
+        <v>14.86023740752615</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>20.21878963130397</v>
+        <v>30.1906557844519</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.99366254865569</v>
+        <v>34.39041100254651</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.2828044268625</v>
+        <v>33.46961644459644</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.89136984250225</v>
+        <v>40.98703352864821</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.42211186105631</v>
+        <v>44.6474593020201</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>20.13675472132675</v>
+        <v>11.56530942105752</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.77961627902395</v>
+        <v>34.26298161904843</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.91344417823548</v>
+        <v>41.4066986824206</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>16.91258726836848</v>
+        <v>-1.761625916683208</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.65970044531612</v>
+        <v>30.82523077316836</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.49066255755969</v>
+        <v>36.1417349062052</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>15.85149541877355</v>
+        <v>-1.111703898131946</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>21.77599583987014</v>
+        <v>20.8977596713244</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.68648670091541</v>
+        <v>28.52318926284416</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>17.02666351551398</v>
+        <v>14.55281688185987</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.54893431473876</v>
+        <v>32.61592502530517</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.33565190224941</v>
+        <v>37.65997297446152</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>23.64346885166774</v>
+        <v>37.24755559866503</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.28692016032273</v>
+        <v>47.52116615957287</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.82964947606204</v>
+        <v>52.13579455315048</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>22.48219414750603</v>
+        <v>12.94000394112875</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.17248681499179</v>
+        <v>40.37290949018528</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.32069544398346</v>
+        <v>48.05897601713841</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>24.20449177350387</v>
+        <v>8.49434207705934</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.89478213259899</v>
+        <v>43.29358796911399</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.71558419771152</v>
+        <v>49.97497962221847</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.32100459554649</v>
+        <v>9.467585506695006</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.18732433568281</v>
+        <v>33.98651273867198</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.08721891635992</v>
+        <v>43.17010493684626</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.46340309044993</v>
+        <v>28.00762537777382</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.93156745715829</v>
+        <v>48.31737189320982</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.7082176982036</v>
+        <v>54.70173923317455</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>31.09146032561623</v>
+        <v>57.18264599978649</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.69220112308055</v>
+        <v>68.0341361469719</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>37.2263576618145</v>
+        <v>73.6115527423753</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.90741410903795</v>
+        <v>28.87603996028436</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>36.53144673825976</v>
+        <v>59.38064905017826</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.66788930986939</v>
+        <v>68.85958334940376</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>12.4420610665831</v>
+        <v>-13.41250538705945</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>18.11751280105636</v>
+        <v>15.21840361831312</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.92538891164623</v>
+        <v>19.51778968072904</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.3258160603184</v>
+        <v>-8.833531325092494</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.17607666299514</v>
+        <v>8.916096497626516</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.06262745604729</v>
+        <v>15.37511514708491</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.49852264416977</v>
+        <v>4.132781770615587</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.95144699743107</v>
+        <v>18.54005546910169</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.7157962967739</v>
+        <v>22.6317766405255</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.00170753437099</v>
+        <v>21.55035389822404</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.58574954341291</v>
+        <v>28.6768213393297</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.10724413536352</v>
+        <v>32.32999897239604</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.87553974725135</v>
+        <v>0.4100341566438246</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>24.48260109993212</v>
+        <v>21.95312582264966</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.60383714579486</v>
+        <v>28.88929071362124</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>14.7231191463133</v>
+        <v>-8.768853178541409</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>20.4393150070673</v>
+        <v>22.70520948018498</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.25943765337046</v>
+        <v>27.91065259267223</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>13.62289811442195</v>
+        <v>-8.508025826401127</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.51550616705514</v>
+        <v>12.40580657902328</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.41470131887485</v>
+        <v>19.88296489935389</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.79625427366184</v>
+        <v>6.437894107721583</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.28880361173733</v>
+        <v>23.54474646883313</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.0649442256612</v>
+        <v>28.47586951720658</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.36946815401713</v>
+        <v>27.90488120782213</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.9882464117403</v>
+        <v>37.75362291539233</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.52166985678896</v>
+        <v>42.36392502871749</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>20.22803631963443</v>
+        <v>4.375352515421909</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.88232970661348</v>
+        <v>30.59907684817556</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.01788074288094</v>
+        <v>38.08019675741033</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.07186825507904</v>
+        <v>1.769051946960122</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.73163411952407</v>
+        <v>35.44977598633552</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.54170743809556</v>
+        <v>42.00896865777729</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.14976048393099</v>
+        <v>2.344577813371362</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.98458980639111</v>
+        <v>25.76141216211566</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.87330456820889</v>
+        <v>34.78378278868372</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.29046835108162</v>
+        <v>20.15004897419196</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.72928558498775</v>
+        <v>39.4974144848412</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.49546842381969</v>
+        <v>45.75764233555691</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.87527815654978</v>
+        <v>48.05643496539348</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.45164499864762</v>
+        <v>58.48307923542271</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.97658414856139</v>
+        <v>64.04872792755958</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.71060176965838</v>
+        <v>20.56342896321744</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>34.29909133640462</v>
+        <v>49.84723175310135</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.4230044078694</v>
+        <v>59.10612134048321</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.91007355065545</v>
+        <v>4.806607445535654</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.66657690619351</v>
+        <v>34.53385981536118</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.52095189897738</v>
+        <v>39.40738082853099</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.89129437656883</v>
+        <v>10.30180734597473</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.82479044021602</v>
+        <v>28.87429966467907</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.75969645522621</v>
+        <v>36.04409671763138</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.06210934802063</v>
+        <v>23.81328393514913</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.59243323961209</v>
+        <v>38.91720890975007</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.40208805422501</v>
+        <v>43.57835791707853</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.71460431321396</v>
+        <v>42.76309843116331</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.36420058324586</v>
+        <v>50.06080752899467</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.9271239897065</v>
+        <v>54.71393840826011</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>24.53799796316049</v>
+        <v>20.95124692080527</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.23929756835192</v>
+        <v>43.25887380743147</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.41465883170071</v>
+        <v>51.23350616281689</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.22092321707209</v>
+        <v>8.179803728400447</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.01888318571076</v>
+        <v>40.82400059063517</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.88578321103581</v>
+        <v>46.63880502867711</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.21789920945965</v>
+        <v>9.226350322794076</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.19448986800327</v>
+        <v>31.0512835136993</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.1423245800108</v>
+        <v>39.27687727083834</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.38930501023228</v>
+        <v>24.71148681472761</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.95995481274244</v>
+        <v>42.58925027801676</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.78166558117494</v>
+        <v>48.12219734062899</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.11314734155095</v>
+        <v>47.79440247628749</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.79808703421406</v>
+        <v>57.94151019826214</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>34.37324683039093</v>
+        <v>63.53884667681855</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.92107471920795</v>
+        <v>23.48863471535605</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.67043198481935</v>
+        <v>50.62885834948926</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>35.86043225963724</v>
+        <v>59.16938244539739</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.37617733851947</v>
+        <v>16.26111504229937</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.11701768780668</v>
+        <v>51.07439959533967</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.97355511573765</v>
+        <v>58.25553846784095</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.5493398974335</v>
+        <v>17.58783133277693</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.46745442453695</v>
+        <v>41.87537097739683</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.40448469635135</v>
+        <v>51.66085415236036</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.68774365080697</v>
+        <v>35.95103280631911</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.20401541393076</v>
+        <v>56.03394789088523</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.0154629176041</v>
+        <v>62.90813308013736</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>35.4212590884558</v>
+        <v>65.56105666215981</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.06334109178012</v>
+        <v>76.25643354064425</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>41.62979117163642</v>
+        <v>82.83610518151622</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.20725528827535</v>
+        <v>37.23522425399312</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>40.8900061343258</v>
+        <v>67.400817700484</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>43.06800693018823</v>
+        <v>77.73022331065752</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>15.46340762640471</v>
+        <v>12.48033833070977</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.16998445693276</v>
+        <v>43.21013884000062</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.98934671168012</v>
+        <v>47.98707549132415</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.39663660135514</v>
+        <v>17.59419099519726</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.27912126137136</v>
+        <v>37.55569850775109</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.17757960902568</v>
+        <v>44.57316034862214</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.57117089097174</v>
+        <v>32.03311967969621</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>21.05413511936384</v>
+        <v>48.38641104417911</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.82964248705186</v>
+        <v>52.95343551580874</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>22.11702279716156</v>
+        <v>51.55699605777593</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.72573510267939</v>
+        <v>59.50905116171029</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.25723488484656</v>
+        <v>63.51273295577835</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>20.96407798637613</v>
+        <v>28.41149029108649</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.6074322373756</v>
+        <v>52.42510561153853</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.74198086437113</v>
+        <v>60.04225812598803</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.73368091860332</v>
+        <v>13.65131953235218</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.4811130986355</v>
+        <v>47.2453337414413</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.31277278267521</v>
+        <v>52.92877039297052</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.68281661593117</v>
+        <v>14.32916020186789</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.60776599213609</v>
+        <v>37.48018119423206</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.51892048523769</v>
+        <v>45.51505545675857</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>17.8579971947288</v>
+        <v>30.7423827755621</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.3806959427042</v>
+        <v>49.81694073322547</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.16804278108392</v>
+        <v>55.22209195454421</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.47414186974203</v>
+        <v>54.32536065404663</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.11769443253627</v>
+        <v>65.01009582193777</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.66117469064083</v>
+        <v>69.97797771847075</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>23.3060083370665</v>
+        <v>28.79566442417496</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.99672503954975</v>
+        <v>57.52809295980909</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>32.1456471564329</v>
+        <v>65.68205006472758</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.9710794545362</v>
+        <v>20.9115149062422</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.66153498164065</v>
+        <v>56.68344180376643</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>32.48310962866458</v>
+        <v>63.73852679983389</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>24.09752048026911</v>
+        <v>21.92075550127604</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.96412634723996</v>
+        <v>47.54315483860071</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.8647644285281</v>
+        <v>57.14364422640607</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.23981683167889</v>
+        <v>41.14666245936718</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.70825783265735</v>
+        <v>62.4344309437</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>32.4856115017577</v>
+        <v>69.18652448846788</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>31.86725700403974</v>
+        <v>71.22950478329813</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.46798642514767</v>
+        <v>82.48334232152699</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>38.00295758396787</v>
+        <v>88.43010977767932</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.67681463226573</v>
+        <v>41.75472926101875</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>37.30108814480376</v>
+        <v>73.51791731743447</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>39.43833572674237</v>
+        <v>83.47266863384938</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>20.67543395715406</v>
+        <v>14.73667948984584</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.37697882554572</v>
+        <v>46.07026827714468</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.21193015390829</v>
+        <v>51.07552105293172</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>19.69611404795568</v>
+        <v>21.18411360030953</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.57300934855864</v>
+        <v>41.49461992699578</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.48760260429101</v>
+        <v>48.81682459468699</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.85178605012911</v>
+        <v>35.42332945360025</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>26.32934108743799</v>
+        <v>52.06625924146088</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.12000838171713</v>
+        <v>56.85827450326677</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>27.45202512851058</v>
+        <v>55.88318942598563</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.05736488924823</v>
+        <v>63.95516466532355</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.60417902444745</v>
+        <v>68.73141257707553</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>26.27951706737232</v>
+        <v>32.72807811531215</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.91690539694743</v>
+        <v>56.94040517363199</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>35.0693738857001</v>
+        <v>65.09650219177533</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.94791191257022</v>
+        <v>18.07460798792821</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.69041871506775</v>
+        <v>52.3373668586071</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.53771444717032</v>
+        <v>58.26599379484446</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.98391921255774</v>
+        <v>20.01469980346256</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.90339568258852</v>
+        <v>43.59114587804286</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.83072935265641</v>
+        <v>51.94801406270477</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>23.14023701650112</v>
+        <v>36.25586570449362</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.65763792163217</v>
+        <v>55.68473517115582</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.46018545770786</v>
+        <v>61.32988535077227</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.81095188285402</v>
+        <v>60.91785448636764</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.45122806334226</v>
+        <v>71.85714102961651</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.01011309020917</v>
+        <v>77.57174615476318</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.62321394409499</v>
+        <v>35.28051173818253</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.30808626675223</v>
+        <v>64.35014911899047</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.4749808501867</v>
+        <v>73.04435447188665</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.94117292824433</v>
+        <v>24.24458521315093</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>35.62694511812309</v>
+        <v>60.64513112306895</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.46403322947981</v>
+        <v>67.95261706140829</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.15045355435923</v>
+        <v>26.45374272119573</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.01184391532745</v>
+        <v>52.45817296261677</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.92853565275441</v>
+        <v>62.38875441518314</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.27416230018718</v>
+        <v>45.54319355390521</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>35.73754857687054</v>
+        <v>67.14663889705523</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.52998524561883</v>
+        <v>74.14526904749734</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.95383414525342</v>
+        <v>76.7368373800971</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.55155196129489</v>
+        <v>88.21337870884818</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>43.10186712266669</v>
+        <v>94.9114421591652</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.74489321653498</v>
+        <v>47.10549955814588</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.36360332474057</v>
+        <v>79.16707585901491</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>44.51868277764858</v>
+        <v>89.66057248563595</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.55369889920756</v>
+        <v>12.92675864778936</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.41893590715008</v>
+        <v>42.65858171654665</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.30169548437524</v>
+        <v>47.63170383181786</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.40643684985051</v>
+        <v>19.25345264020976</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.45200310101341</v>
+        <v>37.93904813883</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.41641196647564</v>
+        <v>45.1963938527946</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>12.6128563865951</v>
+        <v>32.48079274621372</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.24768631479391</v>
+        <v>47.69949193245989</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>20.0849373730755</v>
+        <v>52.45213003385199</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>19.408151536874</v>
+        <v>51.3760325375836</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.1469102895011</v>
+        <v>58.71531980316989</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.7335275542001</v>
+        <v>63.56066885557121</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.26363015174692</v>
+        <v>29.4421890523386</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.09147481890441</v>
+        <v>51.81647930134154</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.2999550664437</v>
+        <v>59.92562600574428</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>14.87129659831195</v>
+        <v>18.21257926491353</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.77862141663115</v>
+        <v>50.83089708293144</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.67403837522359</v>
+        <v>56.73631710002709</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>13.73934209893136</v>
+        <v>20.14955287139254</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.82865688042476</v>
+        <v>42.05312521867069</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.80612927354858</v>
+        <v>50.35538278171927</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>14.94662508435784</v>
+        <v>35.34281520714725</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.62239396542464</v>
+        <v>53.30605915585882</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.47182683017178</v>
+        <v>58.92150497892641</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.81416356497826</v>
+        <v>58.35827272003439</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.58883065380296</v>
+        <v>68.53052971502588</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.1878246532058</v>
+        <v>74.31443413936609</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.65405174439303</v>
+        <v>33.9469577690836</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.53068272587452</v>
+        <v>61.1143995274611</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.7539533306846</v>
+        <v>69.78055615045695</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.27777721656202</v>
+        <v>24.45272738980769</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.12672564866607</v>
+        <v>59.19813172983754</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.01178645284728</v>
+        <v>66.4583269218912</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.32773894084144</v>
+        <v>26.64759049002798</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.35728604043844</v>
+        <v>50.96714989643855</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.32396861985771</v>
+        <v>60.81593513091671</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>22.50131653873216</v>
+        <v>44.67176917316181</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.12150717000453</v>
+        <v>64.79835452685853</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.96068428127193</v>
+        <v>71.74362073736333</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.37822593513252</v>
+        <v>74.16257073395178</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.10908832159263</v>
+        <v>84.86859098571524</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.69939532329129</v>
+        <v>91.62510661576479</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.19469729287673</v>
+        <v>45.78917282149452</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.00325339286758</v>
+        <v>75.92856541375156</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.21454859784144</v>
+        <v>86.36555391438993</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>17.30911162709795</v>
+        <v>8.275441704252721</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.0474984494904</v>
+        <v>39.87963050343419</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.88378502117268</v>
+        <v>44.63139694873219</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>16.26852450114474</v>
+        <v>13.53775188691437</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.18375207620635</v>
+        <v>34.24338412183717</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.09975676974357</v>
+        <v>41.27180632510058</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>17.44315385804279</v>
+        <v>28.32706193223247</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.95657139405284</v>
+        <v>45.3205907423284</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.74851874622756</v>
+        <v>49.86390863025528</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>24.04752753562508</v>
+        <v>48.76810799963522</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.68204813828712</v>
+        <v>56.97669654758528</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.22870569024028</v>
+        <v>61.26069588786531</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.88012963268985</v>
+        <v>24.88732118345737</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.56051052089067</v>
+        <v>49.72543761528857</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.71468298025877</v>
+        <v>57.39022119802965</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>19.58497946174304</v>
+        <v>10.36417570579991</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.36444852402967</v>
+        <v>44.87939429640313</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.2131213417034</v>
+        <v>50.53029563151665</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>18.56014788717266</v>
+        <v>11.13567318898806</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.51807865825813</v>
+        <v>35.08503776220434</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.44686940669521</v>
+        <v>43.12126725415875</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.73542687101786</v>
+        <v>27.93120716406575</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.28880270624261</v>
+        <v>47.69209408364101</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.09267315994172</v>
+        <v>53.06457820386568</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.41049652849748</v>
+        <v>52.49830281997109</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.08005986813671</v>
+        <v>63.49979823284249</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.6387982686067</v>
+        <v>68.73892361434463</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.22785035489027</v>
+        <v>26.19353721283391</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.95585708546852</v>
+        <v>55.83432480813548</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.12450540347461</v>
+        <v>64.01654849875626</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.75524791625294</v>
+        <v>16.74926861353544</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.47739146364079</v>
+        <v>53.43435228745898</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.31591798275954</v>
+        <v>60.47595230220134</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.90726694242739</v>
+        <v>17.82467071552291</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.80649676434018</v>
+        <v>44.23695872943153</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.7247092668618</v>
+        <v>53.8605211613912</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.04949544434073</v>
+        <v>37.4521386158134</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>32.54828212384155</v>
+        <v>59.41933300791158</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34.34210026601874</v>
+        <v>66.15727427625795</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>33.73507100926681</v>
+        <v>68.57635561268033</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>38.36157616082868</v>
+        <v>80.13406469762467</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>39.91177285157094</v>
+        <v>86.36895327386301</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.53055872192247</v>
+        <v>38.29037502846275</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>39.19171355139231</v>
+        <v>70.95783436754266</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.34862028612662</v>
+        <v>80.96368802530381</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>18.10976891597401</v>
+        <v>1.004201766678541</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.77606130786464</v>
+        <v>30.35026350064465</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.60230542122569</v>
+        <v>35.20036937011633</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.09587623357142</v>
+        <v>6.637570658941709</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.93640245882222</v>
+        <v>25.03035264520064</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.84190419622388</v>
+        <v>32.14191309224213</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>18.24864031206893</v>
+        <v>19.86174211635507</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.69230356687456</v>
+        <v>34.82412319353666</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.47446952173818</v>
+        <v>39.46040369015307</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.79972943288002</v>
+        <v>38.31636631498928</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.3764295197061</v>
+        <v>45.55898508926416</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.91582608702396</v>
+        <v>50.05879554175687</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.64884224998086</v>
+        <v>16.52670123393857</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.24514614024999</v>
+        <v>38.60184013354178</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.38740800565414</v>
+        <v>46.49117758833344</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.37028851760464</v>
+        <v>6.83166026457976</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.07735146189122</v>
+        <v>39.10228668573945</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.91594702811102</v>
+        <v>44.90650623920747</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>19.37182200463108</v>
+        <v>8.141359295903126</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.25473013774752</v>
+        <v>29.79541129104803</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.17298123093924</v>
+        <v>37.97683547176325</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.52518579803323</v>
+        <v>23.34638062097912</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.0085082575578</v>
+        <v>41.09157713337443</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>27.80256310825097</v>
+        <v>46.61316524895375</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.14644338769575</v>
+        <v>45.86406257762749</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.7579080875908</v>
+        <v>55.93052531030824</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.30936829594495</v>
+        <v>61.37033688658136</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.98040493040767</v>
+        <v>21.57623139699414</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.62397111339184</v>
+        <v>48.47345196783693</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.78066834918107</v>
+        <v>56.95322575984946</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.41169138339374</v>
+        <v>14.48256224964305</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.06245870745115</v>
+        <v>48.89630963595454</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.89089927506026</v>
+        <v>56.0477062854973</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.58675848876201</v>
+        <v>16.05126838812131</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.41203280571191</v>
+        <v>40.13858108804632</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.31969734717133</v>
+        <v>49.85814803796463</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>27.70759425966999</v>
+        <v>34.07784450005618</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>33.13732168665414</v>
+        <v>54.00214715097885</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>34.92131938023477</v>
+        <v>60.84606595803034</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.33808370386629</v>
+        <v>63.00254690625707</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.90729684886114</v>
+        <v>73.62212728006172</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.45022607992286</v>
+        <v>80.0277598144162</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.15039439414869</v>
+        <v>34.77180167134768</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>39.72831632782705</v>
+        <v>64.65587085943871</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.87325691305594</v>
+        <v>74.90525318189265</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>12.48461510730351</v>
+        <v>5.37721995577061</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.3455558643383</v>
+        <v>34.78890391210265</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.22791267995521</v>
+        <v>39.80072165821056</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>11.33775171413632</v>
+        <v>11.4626394477325</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>17.37887752155924</v>
+        <v>29.81579697350067</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.34286009197019</v>
+        <v>37.11530530811729</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>12.54361654744423</v>
+        <v>24.52625144813801</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>18.17430959817475</v>
+        <v>39.45135765424502</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>20.01116531999686</v>
+        <v>44.24250793843369</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.33586911153722</v>
+        <v>43.30338813965896</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.07114455054277</v>
+        <v>50.50113301165585</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.65748558469021</v>
+        <v>55.36270317816157</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.19309444689116</v>
+        <v>21.6579679691411</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.01591633651694</v>
+        <v>43.67299472032583</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.22390982661597</v>
+        <v>51.82790865046155</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>14.79660713024797</v>
+        <v>10.42014393375976</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.69960879599293</v>
+        <v>42.71829366383614</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.59462672286143</v>
+        <v>48.67526607716997</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>13.66498364416328</v>
+        <v>12.13400909913817</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>19.74983023982703</v>
+        <v>33.70557006412258</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.72688040780344</v>
+        <v>42.064511733157</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>14.87171130320403</v>
+        <v>27.15363576326568</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>20.54331737491995</v>
+        <v>44.82367303802246</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>22.39235867625501</v>
+        <v>50.49046610845751</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>21.73615604286645</v>
+        <v>50.03148896284556</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.5073158826145</v>
+        <v>60.06169252945939</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.10603676057261</v>
+        <v>65.86607092967628</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.57782637927249</v>
+        <v>25.90375744605359</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.44940340633002</v>
+        <v>52.70970151687513</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.67219187070114</v>
+        <v>61.43813518122732</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.1952264485229</v>
+        <v>16.98145433533757</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.03990072556691</v>
+        <v>51.40905334372135</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.92455038867379</v>
+        <v>58.71638551012113</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.24537167969988</v>
+        <v>18.95434559786569</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.27050168146433</v>
+        <v>42.94441955689123</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.2367497731193</v>
+        <v>52.84500245840785</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>22.41840008203058</v>
+        <v>36.8064004759438</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.03447516268571</v>
+        <v>56.64202896043201</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.87324930342654</v>
+        <v>63.63439196423396</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.2921854342185</v>
+        <v>66.14916047363064</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.01957501484157</v>
+        <v>76.71398216344468</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.60959864021499</v>
+        <v>83.49107772890173</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.11046347878455</v>
+        <v>38.05852969064058</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.91402438527616</v>
+        <v>67.83807468426298</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.12482352558558</v>
+        <v>78.33310633262104</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>19.74600704607987</v>
+        <v>14.88530670943363</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.48753076305525</v>
+        <v>45.56485702107061</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>27.33275704792921</v>
+        <v>50.21887342306093</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.74919555718556</v>
+        <v>21.11825224798772</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>24.66727462123205</v>
+        <v>40.88610029464432</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.59266540238002</v>
+        <v>47.78308159465431</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>19.91632850738049</v>
+        <v>35.34644620293011</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.43231244767899</v>
+        <v>51.52788592608827</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>27.23306279476668</v>
+        <v>55.97087153797929</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>26.5461359508134</v>
+        <v>54.99709792304847</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>31.18338239382771</v>
+        <v>62.74416447404121</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>32.73798756464802</v>
+        <v>66.98019523374718</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.36597492026699</v>
+        <v>32.44083248340284</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.0498418044186</v>
+        <v>55.99823160864118</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.21451420141871</v>
+        <v>63.71533348932479</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>22.04083476817309</v>
+        <v>17.30986679778296</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.82366538070239</v>
+        <v>50.89429327703624</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.6813444699748</v>
+        <v>56.43914840226658</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.05966599436559</v>
+        <v>19.04744976341455</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>27.0206831779248</v>
+        <v>42.05439611541408</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.95892846039521</v>
+        <v>49.95048172400151</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>22.22740223966403</v>
+        <v>35.26521503251794</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>27.78356542853825</v>
+        <v>54.20937708486689</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.59630232380358</v>
+        <v>59.47494220164842</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.92827725535888</v>
+        <v>59.03728846213903</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.60073955351915</v>
+        <v>69.59257747106601</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>35.16750671041315</v>
+        <v>74.74476632610663</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.73275204681545</v>
+        <v>34.03207896658236</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.46450247719599</v>
+        <v>62.39220117078202</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>36.64373046327162</v>
+        <v>70.61038777351209</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.15658070052195</v>
+        <v>23.86718349990857</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.88237245728053</v>
+        <v>59.59065823403087</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.72970961445108</v>
+        <v>66.49897309760524</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.35069109068302</v>
+        <v>25.87136939993739</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>34.25331504299084</v>
+        <v>51.30673976491491</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.18077576577497</v>
+        <v>60.75960077702791</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.4855909742813</v>
+        <v>44.92571706431843</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>34.9874520398167</v>
+        <v>66.04440099345031</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>36.78994465655926</v>
+        <v>72.64902265172186</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>36.19622781610106</v>
+        <v>75.15422718038184</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>40.82587461712677</v>
+        <v>86.25395289490353</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>42.38395418330644</v>
+        <v>92.37261523975667</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.97899423239759</v>
+        <v>46.17387324371589</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>41.64423443717867</v>
+        <v>77.51935148395631</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>43.81148540873578</v>
+        <v>87.52488136169788</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>18.20534823240708</v>
+        <v>8.052794838078277</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.94977019936613</v>
+        <v>39.73743235502028</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.78995836006474</v>
+        <v>44.48475108483733</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>17.18108541175143</v>
+        <v>13.65805336579963</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.10246627425186</v>
+        <v>34.45508437040866</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.02252971915357</v>
+        <v>41.47845107532581</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>18.35391219735249</v>
+        <v>28.34177885407775</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>23.873043137843</v>
+        <v>45.41942148182183</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.66879322077341</v>
+        <v>49.95735678562752</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>24.97290046967349</v>
+        <v>48.902976747883</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.61235353612081</v>
+        <v>57.1306706182208</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.16256122272754</v>
+        <v>61.47796017344616</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>23.79967931243646</v>
+        <v>24.95420092505476</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.48705652006009</v>
+        <v>49.87827532187838</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>32.64576959853876</v>
+        <v>57.55146272303406</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>20.48568318849483</v>
+        <v>10.32961747490607</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.27126232232385</v>
+        <v>44.92600884197905</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.12386332150704</v>
+        <v>50.57614784830167</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>19.47713788853574</v>
+        <v>11.44173624759666</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.44130049227417</v>
+        <v>35.48388436587264</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.37417693243696</v>
+        <v>43.51873375735485</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>20.65060144133783</v>
+        <v>28.12789269369061</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>26.20976462281257</v>
+        <v>47.97395823509555</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.01746282445898</v>
+        <v>53.34450722393549</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>27.34044726762847</v>
+        <v>52.82161194834602</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>32.01500463264345</v>
+        <v>63.84783507218224</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>33.57732464193295</v>
+        <v>69.14693294389903</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>26.15196096511706</v>
+        <v>26.44768946751073</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>32.8870501830905</v>
+        <v>56.18014005305776</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>35.06026998856551</v>
+        <v>64.37275277014109</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>27.62287496721111</v>
+        <v>16.04233399207581</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>33.35109402654122</v>
+        <v>52.79112534370348</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.1935319746451</v>
+        <v>59.83450749117413</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.79058576746175</v>
+        <v>17.43515927829186</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.69601464083178</v>
+        <v>43.92081220047939</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.61829476621532</v>
+        <v>53.54589615563278</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>27.93102965532748</v>
+        <v>36.94650693134751</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.43557335716754</v>
+        <v>58.98167380077338</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.23320254355657</v>
+        <v>65.72005737783593</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.63104000160198</v>
+        <v>68.17030705523872</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>39.26252361323957</v>
+        <v>79.74879997143452</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>40.81629710964486</v>
+        <v>86.04427504836586</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>33.4208737890558</v>
+        <v>37.82617943576643</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>40.08907229261992</v>
+        <v>70.56257138456048</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>42.25052955295804</v>
+        <v>80.58148082039875</v>
       </c>
     </row>
   </sheetData>
